--- a/dataset/GDP.xlsx
+++ b/dataset/GDP.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fileVersion appName="SpreadsheetGear 5.1.1.178"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\dataset\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3947BD8-CE66-4422-BC6B-201C581DB313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18075" windowHeight="9900"/>
+    <workbookView xWindow="2948" yWindow="1905" windowWidth="18000" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
     <sheet name="Series - Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="40001"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>1984 [YR1984]</t>
   </si>
@@ -32,9 +38,6 @@
     <t>2004 [YR2004]</t>
   </si>
   <si>
-    <t>1960 [YR1960]</t>
-  </si>
-  <si>
     <t>https://datacatalog.worldbank.org/public-licenses#cc-by</t>
   </si>
   <si>
@@ -53,18 +56,12 @@
     <t>2012 [YR2012]</t>
   </si>
   <si>
-    <t>Country Code</t>
-  </si>
-  <si>
     <t>1974 [YR1974]</t>
   </si>
   <si>
     <t>2018 [YR2018]</t>
   </si>
   <si>
-    <t>Data from database: World Development Indicators</t>
-  </si>
-  <si>
     <t>NY.GDP.MKTP.CD</t>
   </si>
   <si>
@@ -77,9 +74,6 @@
     <t>1965 [YR1965]</t>
   </si>
   <si>
-    <t>Last Updated: 09/19/2024</t>
-  </si>
-  <si>
     <t>1997 [YR1997]</t>
   </si>
   <si>
@@ -99,9 +93,6 @@
   </si>
   <si>
     <t>2017 [YR2017]</t>
-  </si>
-  <si>
-    <t>Country Name</t>
   </si>
   <si>
     <t>1964 [YR1964]</t>
@@ -217,9 +208,6 @@
     <t>1966 [YR1966]</t>
   </si>
   <si>
-    <t>Series Code</t>
-  </si>
-  <si>
     <t>2010 [YR2010]</t>
   </si>
   <si>
@@ -256,15 +244,9 @@
     <t>2000 [YR2000]</t>
   </si>
   <si>
-    <t>Malaysia</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
-    <t>Series Name</t>
-  </si>
-  <si>
     <t>1962 [YR1962]</t>
   </si>
   <si>
@@ -275,9 +257,6 @@
   </si>
   <si>
     <t>2023 [YR2023]</t>
-  </si>
-  <si>
-    <t>MYS</t>
   </si>
   <si>
     <t>Indicator Name</t>
@@ -304,135 +283,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -456,14 +320,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -751,537 +623,487 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:BP7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:BK2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row>
-      <c t="s">
+    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L1" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" t="s">
+        <v>31</v>
+      </c>
+      <c r="S1" t="s">
+        <v>76</v>
+      </c>
+      <c r="T1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U1" t="s">
+        <v>58</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>21</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>75</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>54</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS1" t="s">
         <v>81</v>
       </c>
-      <c s="1" t="s">
-        <v>66</v>
-      </c>
-      <c t="s">
-        <v>28</v>
-      </c>
-      <c s="1" t="s">
+      <c r="AT1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>61</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>1</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>80</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>23</v>
+      </c>
+      <c r="BF1" t="s">
         <v>12</v>
       </c>
-      <c t="s">
-        <v>5</v>
-      </c>
-      <c t="s">
-        <v>91</v>
-      </c>
-      <c t="s">
-        <v>82</v>
-      </c>
-      <c t="s">
-        <v>37</v>
-      </c>
-      <c t="s">
-        <v>29</v>
-      </c>
-      <c t="s">
-        <v>19</v>
-      </c>
-      <c t="s">
-        <v>65</v>
-      </c>
-      <c t="s">
-        <v>56</v>
-      </c>
-      <c t="s">
+      <c r="BG1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" t="s">
         <v>48</v>
       </c>
-      <c t="s">
-        <v>41</v>
-      </c>
-      <c t="s">
-        <v>88</v>
-      </c>
-      <c t="s">
-        <v>76</v>
-      </c>
-      <c t="s">
-        <v>69</v>
-      </c>
-      <c t="s">
-        <v>26</v>
-      </c>
-      <c t="s">
-        <v>13</v>
-      </c>
-      <c t="s">
-        <v>2</v>
-      </c>
-      <c t="s">
-        <v>52</v>
-      </c>
-      <c t="s">
-        <v>44</v>
-      </c>
-      <c t="s">
-        <v>36</v>
-      </c>
-      <c t="s">
+      <c r="BI1" t="s">
+        <v>40</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>84</v>
       </c>
-      <c t="s">
-        <v>72</v>
-      </c>
-      <c t="s">
-        <v>63</v>
-      </c>
-      <c t="s">
-        <v>23</v>
-      </c>
-      <c t="s">
-        <v>10</v>
-      </c>
-      <c t="s">
-        <v>0</v>
-      </c>
-      <c t="s">
-        <v>50</v>
-      </c>
-      <c t="s">
-        <v>43</v>
-      </c>
-      <c t="s">
-        <v>33</v>
-      </c>
-      <c t="s">
-        <v>25</v>
-      </c>
-      <c t="s">
-        <v>71</v>
-      </c>
-      <c t="s">
-        <v>61</v>
-      </c>
-      <c t="s">
-        <v>51</v>
-      </c>
-      <c t="s">
-        <v>7</v>
-      </c>
-      <c t="s">
-        <v>92</v>
-      </c>
-      <c t="s">
-        <v>83</v>
-      </c>
-      <c t="s">
-        <v>39</v>
-      </c>
-      <c t="s">
-        <v>32</v>
-      </c>
-      <c t="s">
-        <v>21</v>
-      </c>
-      <c t="s">
-        <v>68</v>
-      </c>
-      <c t="s">
-        <v>59</v>
-      </c>
-      <c t="s">
-        <v>78</v>
-      </c>
-      <c t="s">
-        <v>70</v>
-      </c>
-      <c t="s">
-        <v>60</v>
-      </c>
-      <c t="s">
-        <v>18</v>
-      </c>
-      <c t="s">
-        <v>4</v>
-      </c>
-      <c t="s">
-        <v>90</v>
-      </c>
-      <c t="s">
-        <v>46</v>
-      </c>
-      <c t="s">
-        <v>38</v>
-      </c>
-      <c t="s">
-        <v>30</v>
-      </c>
-      <c t="s">
-        <v>73</v>
-      </c>
-      <c t="s">
-        <v>67</v>
-      </c>
-      <c t="s">
-        <v>58</v>
-      </c>
-      <c t="s">
-        <v>11</v>
-      </c>
-      <c t="s">
-        <v>1</v>
-      </c>
-      <c t="s">
-        <v>89</v>
-      </c>
-      <c t="s">
-        <v>75</v>
-      </c>
-      <c t="s">
-        <v>34</v>
-      </c>
-      <c t="s">
-        <v>27</v>
-      </c>
-      <c t="s">
-        <v>14</v>
-      </c>
-      <c t="s">
-        <v>62</v>
-      </c>
-      <c t="s">
-        <v>53</v>
-      </c>
-      <c t="s">
-        <v>45</v>
-      </c>
-      <c t="s">
-        <v>93</v>
-      </c>
-      <c t="s">
-        <v>85</v>
+      <c r="BK1" t="s">
+        <v>77</v>
       </c>
     </row>
-    <row>
-      <c t="s">
-        <v>54</v>
-      </c>
-      <c s="1" t="s">
-        <v>16</v>
-      </c>
-      <c t="s">
-        <v>79</v>
-      </c>
-      <c s="1" t="s">
-        <v>86</v>
-      </c>
-      <c>
-        <v>1916229477.1365664</v>
-      </c>
-      <c>
+    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1901856122.7223134</v>
       </c>
-      <c>
+      <c r="B2">
         <v>2001489602.1847498</v>
       </c>
-      <c>
+      <c r="C2">
         <v>2510110348.1618438</v>
       </c>
-      <c>
+      <c r="D2">
         <v>2674423922.4884195</v>
       </c>
-      <c>
+      <c r="E2">
         <v>2956337669.295248</v>
       </c>
-      <c>
+      <c r="F2">
         <v>3143517943.8263178</v>
       </c>
-      <c>
+      <c r="G2">
         <v>3188924677.0895262</v>
       </c>
-      <c>
+      <c r="H2">
         <v>3330371551.2116084</v>
       </c>
-      <c>
+      <c r="I2">
         <v>3664552041.3429937</v>
       </c>
-      <c>
+      <c r="J2">
         <v>3864145667.4136453</v>
       </c>
-      <c>
+      <c r="K2">
         <v>4244395955.7835832</v>
       </c>
-      <c>
+      <c r="L2">
         <v>5043347250.4181509</v>
       </c>
-      <c>
+      <c r="M2">
         <v>7662902677.9026985</v>
       </c>
-      <c>
+      <c r="N2">
         <v>9496204301.7498055</v>
       </c>
-      <c>
+      <c r="O2">
         <v>9298800799.4670219</v>
       </c>
-      <c>
+      <c r="P2">
         <v>11050234598.624868</v>
       </c>
-      <c>
+      <c r="Q2">
         <v>13139488632.554647</v>
       </c>
-      <c>
+      <c r="R2">
         <v>16358079862.109583</v>
       </c>
-      <c>
+      <c r="S2">
         <v>21213264962.014069</v>
       </c>
-      <c>
+      <c r="T2">
         <v>24488224677.210487</v>
       </c>
-      <c>
+      <c r="U2">
         <v>25004285791.786469</v>
       </c>
-      <c>
+      <c r="V2">
         <v>26804493635.329742</v>
       </c>
-      <c>
+      <c r="W2">
         <v>30347442110.93161</v>
       </c>
-      <c>
+      <c r="X2">
         <v>33942897422.046539</v>
       </c>
-      <c>
+      <c r="Y2">
         <v>31199633352.959793</v>
       </c>
-      <c>
+      <c r="Z2">
         <v>27734111399.752541</v>
       </c>
-      <c>
+      <c r="AA2">
         <v>32181210157.967136</v>
       </c>
-      <c>
+      <c r="AB2">
         <v>35272109220.198845</v>
       </c>
-      <c>
+      <c r="AC2">
         <v>38847965292.918518</v>
       </c>
-      <c>
+      <c r="AD2">
         <v>44024585239.613663</v>
       </c>
-      <c>
+      <c r="AE2">
         <v>49143148094.268257</v>
       </c>
-      <c>
+      <c r="AF2">
         <v>59167550162.955986</v>
       </c>
-      <c>
+      <c r="AG2">
         <v>66894966968.973564</v>
       </c>
-      <c>
+      <c r="AH2">
         <v>74478356957.780823</v>
       </c>
-      <c>
+      <c r="AI2">
         <v>88705342902.711319</v>
       </c>
-      <c>
+      <c r="AJ2">
         <v>100855393910.48573</v>
       </c>
-      <c>
+      <c r="AK2">
         <v>100005323301.8667</v>
       </c>
-      <c>
-        <v>72167498980.8398</v>
-      </c>
-      <c>
+      <c r="AL2">
+        <v>72167498980.839798</v>
+      </c>
+      <c r="AM2">
         <v>79148421052.631577</v>
       </c>
-      <c>
+      <c r="AN2">
         <v>93789736842.10527</v>
       </c>
-      <c>
+      <c r="AO2">
         <v>92783947368.421051</v>
       </c>
-      <c>
+      <c r="AP2">
         <v>100845526315.78947</v>
       </c>
-      <c>
+      <c r="AQ2">
         <v>110202368421.05264</v>
       </c>
-      <c>
+      <c r="AR2">
         <v>124749473684.21053</v>
       </c>
-      <c>
+      <c r="AS2">
         <v>143534405818.50137</v>
       </c>
-      <c>
+      <c r="AT2">
         <v>162692258307.05551</v>
       </c>
-      <c>
+      <c r="AU2">
         <v>193549569477.73267</v>
       </c>
-      <c>
+      <c r="AV2">
         <v>230811614370.38364</v>
       </c>
-      <c>
+      <c r="AW2">
         <v>202257453036.6409</v>
       </c>
-      <c>
+      <c r="AX2">
         <v>255017638455.58969</v>
       </c>
-      <c>
+      <c r="AY2">
         <v>297951668674.83466</v>
       </c>
-      <c>
+      <c r="AZ2">
         <v>314443047642.11096</v>
       </c>
-      <c>
+      <c r="BA2">
         <v>323276235524.41534</v>
       </c>
-      <c>
+      <c r="BB2">
         <v>338066095097.25439</v>
       </c>
-      <c>
+      <c r="BC2">
         <v>301355266964.94733</v>
       </c>
-      <c>
+      <c r="BD2">
         <v>301256033870.33356</v>
       </c>
-      <c>
+      <c r="BE2">
         <v>319109094160.34308</v>
       </c>
-      <c>
+      <c r="BF2">
         <v>358788845712.52972</v>
       </c>
-      <c>
+      <c r="BG2">
         <v>365177721021.51611</v>
       </c>
-      <c>
+      <c r="BH2">
         <v>337456163961.21118</v>
       </c>
-      <c>
+      <c r="BI2">
         <v>373832428055.44861</v>
       </c>
-      <c>
+      <c r="BJ2">
         <v>407027451714.61597</v>
       </c>
-      <c>
+      <c r="BK2">
         <v>399648828546.50427</v>
-      </c>
-    </row>
-    <row>
-      <c r="B3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row>
-      <c r="B4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row>
-      <c r="B5" s="1"/>
-      <c r="D5" s="1"/>
-    </row>
-    <row>
-      <c t="s">
-        <v>15</v>
-      </c>
-      <c s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row>
-      <c t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.8125" customWidth="1"/>
-    <col min="2" max="11" width="50.8125" customWidth="1"/>
+    <col min="1" max="1" width="15.796875" customWidth="1"/>
+    <col min="2" max="11" width="50.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row>
-      <c s="2" t="s">
-        <v>17</v>
-      </c>
-      <c s="2" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
         <v>42</v>
       </c>
-      <c s="2" t="s">
-        <v>87</v>
-      </c>
-      <c s="2" t="s">
-        <v>55</v>
-      </c>
-      <c s="2" t="s">
-        <v>80</v>
-      </c>
-      <c s="2" t="s">
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c s="2" t="s">
-        <v>57</v>
-      </c>
-      <c s="2" t="s">
-        <v>3</v>
-      </c>
-      <c s="2" t="s">
-        <v>74</v>
-      </c>
-      <c s="2" t="s">
-        <v>40</v>
-      </c>
-      <c s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row>
-      <c s="2" t="s">
-        <v>16</v>
-      </c>
-      <c s="2" t="s">
-        <v>47</v>
-      </c>
-      <c s="2" t="s">
-        <v>54</v>
-      </c>
-      <c s="2" t="s">
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c s="2" t="s">
-        <v>9</v>
-      </c>
-      <c s="2" t="s">
-        <v>35</v>
-      </c>
-      <c s="2" t="s">
-        <v>24</v>
-      </c>
-      <c s="2" t="s">
-        <v>64</v>
-      </c>
-      <c s="2" t="s">
-        <v>22</v>
-      </c>
-      <c s="2" t="s">
-        <v>31</v>
-      </c>
-      <c s="2" t="s">
-        <v>6</v>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/dataset/GDP.xlsx
+++ b/dataset/GDP.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\han\Desktop\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python project\wqd7001\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3947BD8-CE66-4422-BC6B-201C581DB313}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10BE4D3F-0FFE-48EE-9B3C-2A55B07109CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2948" yWindow="1905" windowWidth="18000" windowHeight="10522" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="24196" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
-  <si>
-    <t>1984 [YR1984]</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>2013 [YR2013]</t>
   </si>
   <si>
-    <t>1975 [YR1975]</t>
-  </si>
-  <si>
     <t>Aggregation method</t>
   </si>
   <si>
@@ -41,24 +35,15 @@
     <t>https://datacatalog.worldbank.org/public-licenses#cc-by</t>
   </si>
   <si>
-    <t>1992 [YR1992]</t>
-  </si>
-  <si>
     <t>GDP at purchaser's prices is the sum of gross value added by all resident producers in the economy plus any product taxes and minus any subsidies not included in the value of the products. It is calculated without making deductions for depreciation of fabricated assets or for depletion and degradation of natural resources. Data are in current U.S. dollars. Dollar figures for GDP are converted from domestic currencies using single year official exchange rates. For a few countries where the official exchange rate does not reflect the rate effectively applied to actual foreign exchange transactions, an alternative conversion factor is used.</t>
   </si>
   <si>
     <t>World Bank national accounts data, and OECD National Accounts data files.</t>
   </si>
   <si>
-    <t>1983 [YR1983]</t>
-  </si>
-  <si>
     <t>2012 [YR2012]</t>
   </si>
   <si>
-    <t>1974 [YR1974]</t>
-  </si>
-  <si>
     <t>2018 [YR2018]</t>
   </si>
   <si>
@@ -71,31 +56,13 @@
     <t>2003 [YR2003]</t>
   </si>
   <si>
-    <t>1965 [YR1965]</t>
-  </si>
-  <si>
-    <t>1997 [YR1997]</t>
-  </si>
-  <si>
     <t>Gross domestic product (GDP) represents the sum of value added by all its producers. Value added is the value of the gross output of producers less the value of intermediate goods and services consumed in production, before accounting for consumption of fixed capital in production. The United Nations System of National Accounts calls for value added to be valued at either basic prices (excluding net taxes on products) or producer prices (including net taxes on products paid by producers but excluding sales or value added taxes). Both valuations exclude transport charges that are invoiced separately by producers. Total GDP is measured at purchaser prices. Value added by industry is normally measured at basic prices.</t>
   </si>
   <si>
-    <t>1982 [YR1982]</t>
-  </si>
-  <si>
     <t>Annual</t>
   </si>
   <si>
-    <t>1988 [YR1988]</t>
-  </si>
-  <si>
-    <t>1973 [YR1973]</t>
-  </si>
-  <si>
     <t>2017 [YR2017]</t>
-  </si>
-  <si>
-    <t>1964 [YR1964]</t>
   </si>
   <si>
     <t>2008 [YR2008]</t>
@@ -106,45 +73,21 @@
 Among the difficulties faced by compilers of national accounts is the extent of unreported economic activity in the informal or secondary economy. In developing countries a large share of agricultural output is either not exchanged (because it is consumed within the household) or not exchanged for money.</t>
   </si>
   <si>
-    <t>1996 [YR1996]</t>
-  </si>
-  <si>
-    <t>1987 [YR1987]</t>
-  </si>
-  <si>
     <t>2016 [YR2016]</t>
   </si>
   <si>
     <t>Economic Policy &amp; Debt: National accounts: US$ at current prices: Aggregate indicators</t>
   </si>
   <si>
-    <t>1978 [YR1978]</t>
-  </si>
-  <si>
-    <t>1963 [YR1963]</t>
-  </si>
-  <si>
     <t>2007 [YR2007]</t>
   </si>
   <si>
-    <t>1995 [YR1995]</t>
-  </si>
-  <si>
     <t>Limitations and exceptions</t>
   </si>
   <si>
-    <t>1969 [YR1969]</t>
-  </si>
-  <si>
     <t>License Type</t>
   </si>
   <si>
-    <t>1986 [YR1986]</t>
-  </si>
-  <si>
-    <t>1977 [YR1977]</t>
-  </si>
-  <si>
     <t>2021 [YR2021]</t>
   </si>
   <si>
@@ -154,21 +97,9 @@
     <t>CC BY-4.0</t>
   </si>
   <si>
-    <t>1968 [YR1968]</t>
-  </si>
-  <si>
     <t>Topic</t>
   </si>
   <si>
-    <t>1985 [YR1985]</t>
-  </si>
-  <si>
-    <t>1991 [YR1991]</t>
-  </si>
-  <si>
-    <t>1976 [YR1976]</t>
-  </si>
-  <si>
     <t>2020 [YR2020]</t>
   </si>
   <si>
@@ -178,54 +109,27 @@
     <t>Long definition</t>
   </si>
   <si>
-    <t>1967 [YR1967]</t>
-  </si>
-  <si>
     <t>Periodicity</t>
   </si>
   <si>
     <t>2011 [YR2011]</t>
   </si>
   <si>
-    <t>1999 [YR1999]</t>
-  </si>
-  <si>
     <t>2002 [YR2002]</t>
   </si>
   <si>
-    <t>1990 [YR1990]</t>
-  </si>
-  <si>
     <t>2019 [YR2019]</t>
   </si>
   <si>
-    <t>1981 [YR1981]</t>
-  </si>
-  <si>
     <t>Gap-filled total</t>
   </si>
   <si>
-    <t>1966 [YR1966]</t>
-  </si>
-  <si>
     <t>2010 [YR2010]</t>
   </si>
   <si>
-    <t>1998 [YR1998]</t>
-  </si>
-  <si>
-    <t>1972 [YR1972]</t>
-  </si>
-  <si>
     <t>2001 [YR2001]</t>
   </si>
   <si>
-    <t>1989 [YR1989]</t>
-  </si>
-  <si>
-    <t>1980 [YR1980]</t>
-  </si>
-  <si>
     <t>2009 [YR2009]</t>
   </si>
   <si>
@@ -235,9 +139,6 @@
     <t>2015 [YR2015]</t>
   </si>
   <si>
-    <t>1971 [YR1971]</t>
-  </si>
-  <si>
     <t>License URL</t>
   </si>
   <si>
@@ -247,34 +148,16 @@
     <t>Source</t>
   </si>
   <si>
-    <t>1962 [YR1962]</t>
-  </si>
-  <si>
-    <t>1994 [YR1994]</t>
-  </si>
-  <si>
-    <t>1979 [YR1979]</t>
-  </si>
-  <si>
     <t>2023 [YR2023]</t>
   </si>
   <si>
     <t>Indicator Name</t>
   </si>
   <si>
-    <t>1970 [YR1970]</t>
-  </si>
-  <si>
     <t>2014 [YR2014]</t>
   </si>
   <si>
     <t>2005 [YR2005]</t>
-  </si>
-  <si>
-    <t>1961 [YR1961]</t>
-  </si>
-  <si>
-    <t>1993 [YR1993]</t>
   </si>
   <si>
     <t>2022 [YR2022]</t>
@@ -624,393 +507,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BK2"/>
+  <dimension ref="A1:X2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>74</v>
+        <v>34</v>
       </c>
       <c r="C1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D1" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N1" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" t="s">
+        <v>43</v>
+      </c>
+      <c r="P1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G1" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-      <c r="J1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K1" t="s">
-        <v>70</v>
-      </c>
-      <c r="L1" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>39</v>
-      </c>
       <c r="R1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T1" t="s">
         <v>31</v>
       </c>
-      <c r="S1" t="s">
-        <v>76</v>
-      </c>
-      <c r="T1" t="s">
-        <v>66</v>
-      </c>
       <c r="U1" t="s">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="V1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="W1" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>21</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>83</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AJ1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>17</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AM1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AN1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AO1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AP1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AQ1" t="s">
-        <v>15</v>
-      </c>
-      <c r="AR1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT1" t="s">
         <v>41</v>
       </c>
-      <c r="AU1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AV1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AW1" t="s">
-        <v>67</v>
-      </c>
-      <c r="AX1" t="s">
-        <v>61</v>
-      </c>
-      <c r="AY1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AZ1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BA1" t="s">
-        <v>1</v>
-      </c>
-      <c r="BB1" t="s">
-        <v>80</v>
-      </c>
-      <c r="BC1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BD1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>23</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>48</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>40</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>84</v>
-      </c>
-      <c r="BK1" t="s">
-        <v>77</v>
-      </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>1901856122.7223134</v>
+        <v>93789736842.10527</v>
       </c>
       <c r="B2">
-        <v>2001489602.1847498</v>
+        <v>92783947368.421051</v>
       </c>
       <c r="C2">
-        <v>2510110348.1618438</v>
+        <v>100845526315.78947</v>
       </c>
       <c r="D2">
-        <v>2674423922.4884195</v>
+        <v>110202368421.05264</v>
       </c>
       <c r="E2">
-        <v>2956337669.295248</v>
+        <v>124749473684.21053</v>
       </c>
       <c r="F2">
-        <v>3143517943.8263178</v>
+        <v>143534405818.50137</v>
       </c>
       <c r="G2">
-        <v>3188924677.0895262</v>
+        <v>162692258307.05551</v>
       </c>
       <c r="H2">
-        <v>3330371551.2116084</v>
+        <v>193549569477.73267</v>
       </c>
       <c r="I2">
-        <v>3664552041.3429937</v>
+        <v>230811614370.38364</v>
       </c>
       <c r="J2">
-        <v>3864145667.4136453</v>
+        <v>202257453036.6409</v>
       </c>
       <c r="K2">
-        <v>4244395955.7835832</v>
+        <v>255017638455.58969</v>
       </c>
       <c r="L2">
-        <v>5043347250.4181509</v>
+        <v>297951668674.83466</v>
       </c>
       <c r="M2">
-        <v>7662902677.9026985</v>
+        <v>314443047642.11096</v>
       </c>
       <c r="N2">
-        <v>9496204301.7498055</v>
+        <v>323276235524.41534</v>
       </c>
       <c r="O2">
-        <v>9298800799.4670219</v>
+        <v>338066095097.25439</v>
       </c>
       <c r="P2">
-        <v>11050234598.624868</v>
+        <v>301355266964.94733</v>
       </c>
       <c r="Q2">
-        <v>13139488632.554647</v>
+        <v>301256033870.33356</v>
       </c>
       <c r="R2">
-        <v>16358079862.109583</v>
+        <v>319109094160.34308</v>
       </c>
       <c r="S2">
-        <v>21213264962.014069</v>
+        <v>358788845712.52972</v>
       </c>
       <c r="T2">
-        <v>24488224677.210487</v>
+        <v>365177721021.51611</v>
       </c>
       <c r="U2">
-        <v>25004285791.786469</v>
+        <v>337456163961.21118</v>
       </c>
       <c r="V2">
-        <v>26804493635.329742</v>
+        <v>373832428055.44861</v>
       </c>
       <c r="W2">
-        <v>30347442110.93161</v>
+        <v>407027451714.61597</v>
       </c>
       <c r="X2">
-        <v>33942897422.046539</v>
-      </c>
-      <c r="Y2">
-        <v>31199633352.959793</v>
-      </c>
-      <c r="Z2">
-        <v>27734111399.752541</v>
-      </c>
-      <c r="AA2">
-        <v>32181210157.967136</v>
-      </c>
-      <c r="AB2">
-        <v>35272109220.198845</v>
-      </c>
-      <c r="AC2">
-        <v>38847965292.918518</v>
-      </c>
-      <c r="AD2">
-        <v>44024585239.613663</v>
-      </c>
-      <c r="AE2">
-        <v>49143148094.268257</v>
-      </c>
-      <c r="AF2">
-        <v>59167550162.955986</v>
-      </c>
-      <c r="AG2">
-        <v>66894966968.973564</v>
-      </c>
-      <c r="AH2">
-        <v>74478356957.780823</v>
-      </c>
-      <c r="AI2">
-        <v>88705342902.711319</v>
-      </c>
-      <c r="AJ2">
-        <v>100855393910.48573</v>
-      </c>
-      <c r="AK2">
-        <v>100005323301.8667</v>
-      </c>
-      <c r="AL2">
-        <v>72167498980.839798</v>
-      </c>
-      <c r="AM2">
-        <v>79148421052.631577</v>
-      </c>
-      <c r="AN2">
-        <v>93789736842.10527</v>
-      </c>
-      <c r="AO2">
-        <v>92783947368.421051</v>
-      </c>
-      <c r="AP2">
-        <v>100845526315.78947</v>
-      </c>
-      <c r="AQ2">
-        <v>110202368421.05264</v>
-      </c>
-      <c r="AR2">
-        <v>124749473684.21053</v>
-      </c>
-      <c r="AS2">
-        <v>143534405818.50137</v>
-      </c>
-      <c r="AT2">
-        <v>162692258307.05551</v>
-      </c>
-      <c r="AU2">
-        <v>193549569477.73267</v>
-      </c>
-      <c r="AV2">
-        <v>230811614370.38364</v>
-      </c>
-      <c r="AW2">
-        <v>202257453036.6409</v>
-      </c>
-      <c r="AX2">
-        <v>255017638455.58969</v>
-      </c>
-      <c r="AY2">
-        <v>297951668674.83466</v>
-      </c>
-      <c r="AZ2">
-        <v>314443047642.11096</v>
-      </c>
-      <c r="BA2">
-        <v>323276235524.41534</v>
-      </c>
-      <c r="BB2">
-        <v>338066095097.25439</v>
-      </c>
-      <c r="BC2">
-        <v>301355266964.94733</v>
-      </c>
-      <c r="BD2">
-        <v>301256033870.33356</v>
-      </c>
-      <c r="BE2">
-        <v>319109094160.34308</v>
-      </c>
-      <c r="BF2">
-        <v>358788845712.52972</v>
-      </c>
-      <c r="BG2">
-        <v>365177721021.51611</v>
-      </c>
-      <c r="BH2">
-        <v>337456163961.21118</v>
-      </c>
-      <c r="BI2">
-        <v>373832428055.44861</v>
-      </c>
-      <c r="BJ2">
-        <v>407027451714.61597</v>
-      </c>
-      <c r="BK2">
         <v>399648828546.50427</v>
       </c>
     </row>
@@ -1034,72 +683,72 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="D1" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="H1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I1" t="s">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="J1" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="K1" t="s">
-        <v>71</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="H2" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="I2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="J2" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="K2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
